--- a/natmiOut/YoungD0/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>298.156108364359</v>
+        <v>322.4019826666667</v>
       </c>
       <c r="H2">
-        <v>298.156108364359</v>
+        <v>967.205948</v>
       </c>
       <c r="I2">
-        <v>0.7841985710962751</v>
+        <v>0.795674507658366</v>
       </c>
       <c r="J2">
-        <v>0.7841985710962751</v>
+        <v>0.7956745076583662</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>125.089888028981</v>
+        <v>152.2721466666667</v>
       </c>
       <c r="N2">
-        <v>125.089888028981</v>
+        <v>456.81644</v>
       </c>
       <c r="O2">
-        <v>0.559350988517184</v>
+        <v>0.6052823830012941</v>
       </c>
       <c r="P2">
-        <v>0.559350988517184</v>
+        <v>0.6052823830012942</v>
       </c>
       <c r="Q2">
-        <v>37296.31421045439</v>
+        <v>49092.84199024279</v>
       </c>
       <c r="R2">
-        <v>37296.31421045439</v>
+        <v>441835.5779121851</v>
       </c>
       <c r="S2">
-        <v>0.4386422459364647</v>
+        <v>0.4816077620888372</v>
       </c>
       <c r="T2">
-        <v>0.4386422459364647</v>
+        <v>0.4816077620888374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>298.156108364359</v>
+        <v>322.4019826666667</v>
       </c>
       <c r="H3">
-        <v>298.156108364359</v>
+        <v>967.205948</v>
       </c>
       <c r="I3">
-        <v>0.7841985710962751</v>
+        <v>0.795674507658366</v>
       </c>
       <c r="J3">
-        <v>0.7841985710962751</v>
+        <v>0.7956745076583662</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>66.4443055839287</v>
+        <v>66.66193</v>
       </c>
       <c r="N3">
-        <v>66.4443055839287</v>
+        <v>199.98579</v>
       </c>
       <c r="O3">
-        <v>0.2971118496892232</v>
+        <v>0.2649814344194714</v>
       </c>
       <c r="P3">
-        <v>0.2971118496892232</v>
+        <v>0.2649814344194714</v>
       </c>
       <c r="Q3">
-        <v>19810.77557587643</v>
+        <v>21491.93840038655</v>
       </c>
       <c r="R3">
-        <v>19810.77557587643</v>
+        <v>193427.4456034789</v>
       </c>
       <c r="S3">
-        <v>0.2329946879820601</v>
+        <v>0.2108389723703205</v>
       </c>
       <c r="T3">
-        <v>0.2329946879820601</v>
+        <v>0.2108389723703206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>298.156108364359</v>
+        <v>322.4019826666667</v>
       </c>
       <c r="H4">
-        <v>298.156108364359</v>
+        <v>967.205948</v>
       </c>
       <c r="I4">
-        <v>0.7841985710962751</v>
+        <v>0.795674507658366</v>
       </c>
       <c r="J4">
-        <v>0.7841985710962751</v>
+        <v>0.7956745076583662</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0997868339454</v>
+        <v>32.638001</v>
       </c>
       <c r="N4">
-        <v>32.0997868339454</v>
+        <v>97.91400300000001</v>
       </c>
       <c r="O4">
-        <v>0.1435371617935928</v>
+        <v>0.1297361825792344</v>
       </c>
       <c r="P4">
-        <v>0.1435371617935928</v>
+        <v>0.1297361825792344</v>
       </c>
       <c r="Q4">
-        <v>9570.747521734649</v>
+        <v>10522.55623267665</v>
       </c>
       <c r="R4">
-        <v>9570.747521734649</v>
+        <v>94703.00609408985</v>
       </c>
       <c r="S4">
-        <v>0.1125616371777503</v>
+        <v>0.1032277731992082</v>
       </c>
       <c r="T4">
-        <v>0.1125616371777503</v>
+        <v>0.1032277731992082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.5681541443403</v>
+        <v>57.69151966666666</v>
       </c>
       <c r="H5">
-        <v>57.5681541443403</v>
+        <v>173.074559</v>
       </c>
       <c r="I5">
-        <v>0.151413514444832</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="J5">
-        <v>0.151413514444832</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>125.089888028981</v>
+        <v>152.2721466666667</v>
       </c>
       <c r="N5">
-        <v>125.089888028981</v>
+        <v>456.81644</v>
       </c>
       <c r="O5">
-        <v>0.559350988517184</v>
+        <v>0.6052823830012941</v>
       </c>
       <c r="P5">
-        <v>0.559350988517184</v>
+        <v>0.6052823830012942</v>
       </c>
       <c r="Q5">
-        <v>7201.193955950646</v>
+        <v>8784.811544105551</v>
       </c>
       <c r="R5">
-        <v>7201.193955950646</v>
+        <v>79063.30389694996</v>
       </c>
       <c r="S5">
-        <v>0.0846932989795777</v>
+        <v>0.08618025065588453</v>
       </c>
       <c r="T5">
-        <v>0.0846932989795777</v>
+        <v>0.08618025065588455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.5681541443403</v>
+        <v>57.69151966666666</v>
       </c>
       <c r="H6">
-        <v>57.5681541443403</v>
+        <v>173.074559</v>
       </c>
       <c r="I6">
-        <v>0.151413514444832</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="J6">
-        <v>0.151413514444832</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.4443055839287</v>
+        <v>66.66193</v>
       </c>
       <c r="N6">
-        <v>66.4443055839287</v>
+        <v>199.98579</v>
       </c>
       <c r="O6">
-        <v>0.2971118496892232</v>
+        <v>0.2649814344194714</v>
       </c>
       <c r="P6">
-        <v>0.2971118496892232</v>
+        <v>0.2649814344194714</v>
       </c>
       <c r="Q6">
-        <v>3825.076025869258</v>
+        <v>3845.828045612956</v>
       </c>
       <c r="R6">
-        <v>3825.076025869258</v>
+        <v>34612.45241051661</v>
       </c>
       <c r="S6">
-        <v>0.04498674934464995</v>
+        <v>0.03772812009527304</v>
       </c>
       <c r="T6">
-        <v>0.04498674934464995</v>
+        <v>0.03772812009527304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>57.5681541443403</v>
+        <v>57.69151966666666</v>
       </c>
       <c r="H7">
-        <v>57.5681541443403</v>
+        <v>173.074559</v>
       </c>
       <c r="I7">
-        <v>0.151413514444832</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="J7">
-        <v>0.151413514444832</v>
+        <v>0.1423802394983967</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0997868339454</v>
+        <v>32.638001</v>
       </c>
       <c r="N7">
-        <v>32.0997868339454</v>
+        <v>97.91400300000001</v>
       </c>
       <c r="O7">
-        <v>0.1435371617935928</v>
+        <v>0.1297361825792344</v>
       </c>
       <c r="P7">
-        <v>0.1435371617935928</v>
+        <v>0.1297361825792344</v>
       </c>
       <c r="Q7">
-        <v>1847.925476457034</v>
+        <v>1882.935876572186</v>
       </c>
       <c r="R7">
-        <v>1847.925476457034</v>
+        <v>16946.42288914968</v>
       </c>
       <c r="S7">
-        <v>0.02173346612060435</v>
+        <v>0.01847186874723911</v>
       </c>
       <c r="T7">
-        <v>0.02173346612060435</v>
+        <v>0.01847186874723911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.480598037718</v>
+        <v>25.09980166666667</v>
       </c>
       <c r="H8">
-        <v>24.480598037718</v>
+        <v>75.29940500000001</v>
       </c>
       <c r="I8">
-        <v>0.06438791445889284</v>
+        <v>0.06194525284323717</v>
       </c>
       <c r="J8">
-        <v>0.06438791445889284</v>
+        <v>0.06194525284323719</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>125.089888028981</v>
+        <v>152.2721466666667</v>
       </c>
       <c r="N8">
-        <v>125.089888028981</v>
+        <v>456.81644</v>
       </c>
       <c r="O8">
-        <v>0.559350988517184</v>
+        <v>0.6052823830012941</v>
       </c>
       <c r="P8">
-        <v>0.559350988517184</v>
+        <v>0.6052823830012942</v>
       </c>
       <c r="Q8">
-        <v>3062.275267420636</v>
+        <v>3822.000680690911</v>
       </c>
       <c r="R8">
-        <v>3062.275267420636</v>
+        <v>34398.00612621821</v>
       </c>
       <c r="S8">
-        <v>0.0360154436011416</v>
+        <v>0.03749437025657228</v>
       </c>
       <c r="T8">
-        <v>0.0360154436011416</v>
+        <v>0.0374943702565723</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.480598037718</v>
+        <v>25.09980166666667</v>
       </c>
       <c r="H9">
-        <v>24.480598037718</v>
+        <v>75.29940500000001</v>
       </c>
       <c r="I9">
-        <v>0.06438791445889284</v>
+        <v>0.06194525284323717</v>
       </c>
       <c r="J9">
-        <v>0.06438791445889284</v>
+        <v>0.06194525284323719</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>66.4443055839287</v>
+        <v>66.66193</v>
       </c>
       <c r="N9">
-        <v>66.4443055839287</v>
+        <v>199.98579</v>
       </c>
       <c r="O9">
-        <v>0.2971118496892232</v>
+        <v>0.2649814344194714</v>
       </c>
       <c r="P9">
-        <v>0.2971118496892232</v>
+        <v>0.2649814344194714</v>
       </c>
       <c r="Q9">
-        <v>1626.59633689546</v>
+        <v>1673.201221717217</v>
       </c>
       <c r="R9">
-        <v>1626.59633689546</v>
+        <v>15058.81099545495</v>
       </c>
       <c r="S9">
-        <v>0.01913041236251313</v>
+        <v>0.01641434195387783</v>
       </c>
       <c r="T9">
-        <v>0.01913041236251313</v>
+        <v>0.01641434195387783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.480598037718</v>
+        <v>25.09980166666667</v>
       </c>
       <c r="H10">
-        <v>24.480598037718</v>
+        <v>75.29940500000001</v>
       </c>
       <c r="I10">
-        <v>0.06438791445889284</v>
+        <v>0.06194525284323717</v>
       </c>
       <c r="J10">
-        <v>0.06438791445889284</v>
+        <v>0.06194525284323719</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0997868339454</v>
+        <v>32.638001</v>
       </c>
       <c r="N10">
-        <v>32.0997868339454</v>
+        <v>97.91400300000001</v>
       </c>
       <c r="O10">
-        <v>0.1435371617935928</v>
+        <v>0.1297361825792344</v>
       </c>
       <c r="P10">
-        <v>0.1435371617935928</v>
+        <v>0.1297361825792344</v>
       </c>
       <c r="Q10">
-        <v>785.8219785782499</v>
+        <v>819.2073518964685</v>
       </c>
       <c r="R10">
-        <v>785.8219785782499</v>
+        <v>7372.866167068216</v>
       </c>
       <c r="S10">
-        <v>0.009242058495238114</v>
+        <v>0.008036540632787055</v>
       </c>
       <c r="T10">
-        <v>0.009242058495238114</v>
+        <v>0.008036540632787057</v>
       </c>
     </row>
   </sheetData>
